--- a/rhla_analysis/rhla1_3_zipf_result/k6.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4328988602263384</v>
+        <v>0.432898860226334</v>
       </c>
       <c r="B2" t="n">
         <v>27.16571643523314</v>
@@ -466,12 +466,12 @@
         <v>0.1150895140664962</v>
       </c>
       <c r="D2" t="n">
-        <v>62.75303293944854</v>
+        <v>62.75303293944918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1867188934867576</v>
+        <v>0.1867188934867586</v>
       </c>
       <c r="B3" t="n">
         <v>11.23843202005897</v>
@@ -480,12 +480,12 @@
         <v>0.1074168797953964</v>
       </c>
       <c r="D3" t="n">
-        <v>60.18904573712044</v>
+        <v>60.18904573712012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.091235041764063</v>
+        <v>5.091235041764077</v>
       </c>
       <c r="B4" t="n">
         <v>1015.041775078649</v>
@@ -494,26 +494,26 @@
         <v>0.09676044330775789</v>
       </c>
       <c r="D4" t="n">
-        <v>199.370440915049</v>
+        <v>199.3704409150484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9132622314843793</v>
+        <v>0.9132622314843863</v>
       </c>
       <c r="B5" t="n">
-        <v>21.0999879445811</v>
+        <v>21.09998794458111</v>
       </c>
       <c r="C5" t="n">
         <v>0.1005967604433078</v>
       </c>
       <c r="D5" t="n">
-        <v>23.10397519700999</v>
+        <v>23.10397519700982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3075824073517222</v>
+        <v>0.3075824073517209</v>
       </c>
       <c r="B6" t="n">
         <v>15.65844263726644</v>
@@ -522,12 +522,12 @@
         <v>0.107843137254902</v>
       </c>
       <c r="D6" t="n">
-        <v>50.90812173584726</v>
+        <v>50.90812173584747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.191986768078685</v>
+        <v>3.191986768078664</v>
       </c>
       <c r="B7" t="n">
         <v>203.8501255270603</v>
@@ -536,12 +536,12 @@
         <v>0.09548167092924126</v>
       </c>
       <c r="D7" t="n">
-        <v>63.86308601453301</v>
+        <v>63.86308601453343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.07377456060995061</v>
+        <v>0.0737745606099509</v>
       </c>
       <c r="B8" t="n">
         <v>5.883051928973235</v>
@@ -550,12 +550,12 @@
         <v>0.1065643648763853</v>
       </c>
       <c r="D8" t="n">
-        <v>79.74363900419812</v>
+        <v>79.7436390041978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3646630901446229</v>
+        <v>0.3646630901446207</v>
       </c>
       <c r="B9" t="n">
         <v>18.49932674413495</v>
@@ -564,12 +564,12 @@
         <v>0.103154305200341</v>
       </c>
       <c r="D9" t="n">
-        <v>50.72991274438618</v>
+        <v>50.72991274438649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1522230845989494</v>
+        <v>0.1522230845989499</v>
       </c>
       <c r="B10" t="n">
         <v>8.98907403191679</v>
@@ -578,12 +578,12 @@
         <v>0.1014492753623188</v>
       </c>
       <c r="D10" t="n">
-        <v>59.05197661445123</v>
+        <v>59.05197661445101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.882296899785025</v>
+        <v>0.8822968997850306</v>
       </c>
       <c r="B11" t="n">
         <v>48.16790024517741</v>
@@ -592,7 +592,7 @@
         <v>0.1082693947144075</v>
       </c>
       <c r="D11" t="n">
-        <v>54.59375438915596</v>
+        <v>54.59375438915562</v>
       </c>
     </row>
   </sheetData>
